--- a/dados/cef/inadimplentes/sônia1.xlsx
+++ b/dados/cef/inadimplentes/sônia1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="399">
   <si>
     <t/>
   </si>
@@ -22,10 +22,10 @@
     <t>Folha No 1</t>
   </si>
   <si>
-    <t>Relatório de Inadimplência - Data de Referência: 05/03/2025</t>
-  </si>
-  <si>
-    <t>Impresso em: 05/03/2025 11:24:45</t>
+    <t>Relatório de Inadimplência - Data de Referência: 03/04/2025</t>
+  </si>
+  <si>
+    <t>Impresso em: 03/04/2025 16:45:06</t>
   </si>
   <si>
     <t>Título</t>
@@ -94,10 +94,10 @@
     <t>Imobiliaria/Corretor:</t>
   </si>
   <si>
-    <t>20/02/2025</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>20/03/2025</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>F</t>
@@ -106,7 +106,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>009/</t>
+    <t>010/</t>
   </si>
   <si>
     <t>TAX</t>
@@ -118,82 +118,64 @@
     <t>0,00</t>
   </si>
   <si>
-    <t>2,22</t>
+    <t>2,39</t>
   </si>
   <si>
     <t>10,25</t>
   </si>
   <si>
-    <t>525,00</t>
+    <t>525,17</t>
   </si>
   <si>
     <t>Amanda Carolina Joseph dos Santos: 1 Parcela</t>
   </si>
   <si>
-    <t>Cliente: ANANDA PASSOS RIBEIRO</t>
-  </si>
-  <si>
-    <t>Contrato: 0107-1</t>
-  </si>
-  <si>
-    <t>Telefones: +55  (0xx11)98565-8785</t>
-  </si>
-  <si>
-    <t>Unidade: Up Vila Sonia, Quinto pavimento, Apartamento 505</t>
+    <t>Cliente: BIANCA KELLY SILVA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>Contrato: 0173-0</t>
+  </si>
+  <si>
+    <t>Telefones:</t>
+  </si>
+  <si>
+    <t>Unidade: Up Vila Sonia, Vigésimo pavimento, Apartamento 2005</t>
   </si>
   <si>
     <t>NP</t>
   </si>
   <si>
-    <t>026/026</t>
+    <t>017/017</t>
   </si>
   <si>
     <t>MEN</t>
   </si>
   <si>
-    <t>05/01/2025</t>
-  </si>
-  <si>
-    <t>59</t>
+    <t>25/03/2025</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
-    <t>646,61</t>
-  </si>
-  <si>
-    <t>8,63</t>
-  </si>
-  <si>
-    <t>12,89</t>
-  </si>
-  <si>
-    <t>13,10</t>
-  </si>
-  <si>
-    <t>681,23</t>
-  </si>
-  <si>
-    <t>10,08</t>
-  </si>
-  <si>
-    <t>532,86</t>
-  </si>
-  <si>
-    <t>ANANDA PASSOS RIBEIRO: 2 Parcelas</t>
-  </si>
-  <si>
-    <t>1.214,09</t>
-  </si>
-  <si>
-    <t>1.159,14</t>
-  </si>
-  <si>
-    <t>22,97</t>
-  </si>
-  <si>
-    <t>23,35</t>
+    <t>1.791,82</t>
+  </si>
+  <si>
+    <t>5,36</t>
+  </si>
+  <si>
+    <t>5,39</t>
+  </si>
+  <si>
+    <t>35,94</t>
+  </si>
+  <si>
+    <t>1.838,51</t>
+  </si>
+  <si>
+    <t>BIANCA KELLY SILVA DE OLIVEIRA: 1 Parcela</t>
   </si>
   <si>
     <t>Cliente: DIEGO SANTANA SOUZA</t>
@@ -214,619 +196,601 @@
     <t>28/02/2025</t>
   </si>
   <si>
-    <t>5</t>
+    <t>34</t>
   </si>
   <si>
     <t>555,42</t>
   </si>
   <si>
-    <t>1,27</t>
-  </si>
-  <si>
-    <t>0,93</t>
-  </si>
-  <si>
-    <t>11,13</t>
-  </si>
-  <si>
-    <t>568,75</t>
-  </si>
-  <si>
-    <t>DIEGO SANTANA SOUZA: 1 Parcela</t>
-  </si>
-  <si>
-    <t>Cliente: HORNELANDIA ROSA TEIXEIRA</t>
-  </si>
-  <si>
-    <t>Contrato: 0167-0</t>
-  </si>
-  <si>
-    <t>Telefones: +55  (0xx11)98519-6028</t>
-  </si>
-  <si>
-    <t>Unidade: Up Vila Sonia, Oitavo pavimento, Apartamento 801</t>
-  </si>
-  <si>
-    <t>024/026</t>
-  </si>
-  <si>
-    <t>2.205,12</t>
-  </si>
-  <si>
-    <t>4,27</t>
-  </si>
-  <si>
-    <t>3,68</t>
-  </si>
-  <si>
-    <t>44,19</t>
-  </si>
-  <si>
-    <t>2.257,26</t>
+    <t>8,81</t>
+  </si>
+  <si>
+    <t>6,39</t>
+  </si>
+  <si>
+    <t>11,28</t>
+  </si>
+  <si>
+    <t>581,90</t>
+  </si>
+  <si>
+    <t>001/001</t>
+  </si>
+  <si>
+    <t>ANU</t>
+  </si>
+  <si>
+    <t>30/03/2025</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>60.147,78</t>
+  </si>
+  <si>
+    <t>601,48</t>
+  </si>
+  <si>
+    <t>144,96</t>
+  </si>
+  <si>
+    <t>81,19</t>
+  </si>
+  <si>
+    <t>1.217,88</t>
+  </si>
+  <si>
+    <t>62.193,29</t>
+  </si>
+  <si>
+    <t>DIEGO SANTANA SOUZA: 2 Parcelas</t>
+  </si>
+  <si>
+    <t>62.775,19</t>
+  </si>
+  <si>
+    <t>60.703,20</t>
+  </si>
+  <si>
+    <t>153,77</t>
+  </si>
+  <si>
+    <t>87,58</t>
+  </si>
+  <si>
+    <t>1.229,16</t>
+  </si>
+  <si>
+    <t>Cliente: KARINNY GALVAO LEITE</t>
+  </si>
+  <si>
+    <t>Contrato: 0039-1</t>
+  </si>
+  <si>
+    <t>Telefones: +55  (0xx11)95384-1386</t>
+  </si>
+  <si>
+    <t>Unidade: Up Vila Sonia, Décimo sétimo pavimento, Apartamento 1704</t>
+  </si>
+  <si>
+    <t>002-07/002</t>
+  </si>
+  <si>
+    <t>2.236,11</t>
+  </si>
+  <si>
+    <t>4,60</t>
+  </si>
+  <si>
+    <t>2,99</t>
+  </si>
+  <si>
+    <t>44,81</t>
+  </si>
+  <si>
+    <t>2.288,51</t>
+  </si>
+  <si>
+    <t>003/</t>
+  </si>
+  <si>
+    <t>417,09</t>
+  </si>
+  <si>
+    <t>0,56</t>
+  </si>
+  <si>
+    <t>8,34</t>
+  </si>
+  <si>
+    <t>425,99</t>
+  </si>
+  <si>
+    <t>KARINNY GALVAO LEITE: 2 Parcelas</t>
+  </si>
+  <si>
+    <t>2.714,50</t>
+  </si>
+  <si>
+    <t>2.653,20</t>
+  </si>
+  <si>
+    <t>3,55</t>
+  </si>
+  <si>
+    <t>53,15</t>
+  </si>
+  <si>
+    <t>Cliente: Leticia Suzan da Silva</t>
+  </si>
+  <si>
+    <t>Contrato: 0020-1</t>
+  </si>
+  <si>
+    <t>Telefones: +55  (0xx11)99019-4464</t>
+  </si>
+  <si>
+    <t>Unidade: Up Vila Sonia, Vigésimo segundo andar, Apartamento 2208</t>
   </si>
   <si>
     <t>007/</t>
   </si>
   <si>
-    <t>780,52</t>
-  </si>
-  <si>
-    <t>1,30</t>
-  </si>
-  <si>
-    <t>15,61</t>
-  </si>
-  <si>
-    <t>797,43</t>
-  </si>
-  <si>
-    <t>HORNELANDIA ROSA TEIXEIRA: 2 Parcelas</t>
-  </si>
-  <si>
-    <t>3.054,69</t>
-  </si>
-  <si>
-    <t>2.985,64</t>
-  </si>
-  <si>
-    <t>4,98</t>
-  </si>
-  <si>
-    <t>59,80</t>
-  </si>
-  <si>
-    <t>Cliente: ISIS BRITO ALVES PRADO</t>
-  </si>
-  <si>
-    <t>Contrato: 0135-1</t>
-  </si>
-  <si>
-    <t>Telefones: +55  (0xx11)97700-6854</t>
-  </si>
-  <si>
-    <t>Unidade: Up Vila Sonia, Oitavo pavimento, Apartamento 802</t>
+    <t>382,53</t>
+  </si>
+  <si>
+    <t>1,15</t>
+  </si>
+  <si>
+    <t>7,65</t>
+  </si>
+  <si>
+    <t>391,33</t>
+  </si>
+  <si>
+    <t>Leticia Suzan da Silva: 1 Parcela</t>
+  </si>
+  <si>
+    <t>Cliente: MATHEUS DA COSTA E SILVA</t>
+  </si>
+  <si>
+    <t>Contrato: 0145-1</t>
+  </si>
+  <si>
+    <t>Telefones: +55  (0xx11)97746-2969</t>
+  </si>
+  <si>
+    <t>Unidade: Up Vila Sonia, Sétimo pavimento, Apartamento 707</t>
+  </si>
+  <si>
+    <t>027/027</t>
+  </si>
+  <si>
+    <t>10/02/2025</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>1.822,31</t>
+  </si>
+  <si>
+    <t>31,90</t>
+  </si>
+  <si>
+    <t>32,14</t>
+  </si>
+  <si>
+    <t>37,08</t>
+  </si>
+  <si>
+    <t>1.923,43</t>
+  </si>
+  <si>
+    <t>MATHEUS DA COSTA E SILVA: 1 Parcela</t>
+  </si>
+  <si>
+    <t>Cliente: MIRTES SOUZA SANTOS</t>
+  </si>
+  <si>
+    <t>Contrato: 0134-3</t>
+  </si>
+  <si>
+    <t>Telefones: +55  (0xx11)97801-8913</t>
+  </si>
+  <si>
+    <t>Unidade: Up Vila Sonia, Quinto pavimento, Apartamento 502</t>
+  </si>
+  <si>
+    <t>005/008</t>
+  </si>
+  <si>
+    <t>15/10/2024</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>1.523,07</t>
+  </si>
+  <si>
+    <t>57,63</t>
+  </si>
+  <si>
+    <t>89,57</t>
+  </si>
+  <si>
+    <t>31,61</t>
+  </si>
+  <si>
+    <t>1.701,88</t>
+  </si>
+  <si>
+    <t>15/12/2024</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>13.324,64</t>
+  </si>
+  <si>
+    <t>331,58</t>
+  </si>
+  <si>
+    <t>496,18</t>
+  </si>
+  <si>
+    <t>273,12</t>
+  </si>
+  <si>
+    <t>14.425,52</t>
+  </si>
+  <si>
+    <t>UNI</t>
+  </si>
+  <si>
+    <t>15/02/2025</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>16.806,02</t>
+  </si>
+  <si>
+    <t>264,24</t>
+  </si>
+  <si>
+    <t>267,43</t>
+  </si>
+  <si>
+    <t>341,41</t>
+  </si>
+  <si>
+    <t>17.679,10</t>
+  </si>
+  <si>
+    <t>008/018</t>
+  </si>
+  <si>
+    <t>REN</t>
+  </si>
+  <si>
+    <t>1.169,63</t>
+  </si>
+  <si>
+    <t>18,39</t>
+  </si>
+  <si>
+    <t>18,61</t>
+  </si>
+  <si>
+    <t>23,76</t>
+  </si>
+  <si>
+    <t>1.230,39</t>
+  </si>
+  <si>
+    <t>004/</t>
+  </si>
+  <si>
+    <t>8,03</t>
+  </si>
+  <si>
+    <t>530,81</t>
+  </si>
+  <si>
+    <t>009/018</t>
+  </si>
+  <si>
+    <t>15/03/2025</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1.179,34</t>
+  </si>
+  <si>
+    <t>8,68</t>
+  </si>
+  <si>
+    <t>7,52</t>
+  </si>
+  <si>
+    <t>1.219,30</t>
+  </si>
+  <si>
+    <t>005/</t>
+  </si>
+  <si>
+    <t>3,25</t>
+  </si>
+  <si>
+    <t>526,03</t>
+  </si>
+  <si>
+    <t>MIRTES SOUZA SANTOS: 7 Parcelas</t>
+  </si>
+  <si>
+    <t>37.313,03</t>
+  </si>
+  <si>
+    <t>35.027,76</t>
+  </si>
+  <si>
+    <t>680,52</t>
+  </si>
+  <si>
+    <t>890,59</t>
+  </si>
+  <si>
+    <t>714,16</t>
+  </si>
+  <si>
+    <t>Cliente: Rafael Rodrigues Prado</t>
+  </si>
+  <si>
+    <t>Contrato: 0018-1</t>
+  </si>
+  <si>
+    <t>Telefones: +55  (0xx11)94951-6515</t>
+  </si>
+  <si>
+    <t>Unidade: Up Vila Sonia, Vigésimo primeiro andar, Apartamento 2108</t>
+  </si>
+  <si>
+    <t>5.981,40</t>
+  </si>
+  <si>
+    <t>67,99</t>
+  </si>
+  <si>
+    <t>104,86</t>
+  </si>
+  <si>
+    <t>120,99</t>
+  </si>
+  <si>
+    <t>6.275,24</t>
+  </si>
+  <si>
+    <t>Rafael Rodrigues Prado: 1 Parcela</t>
+  </si>
+  <si>
+    <t>Cliente: Sabrina Silva Gomes</t>
+  </si>
+  <si>
+    <t>Contrato: 0035-1</t>
+  </si>
+  <si>
+    <t>Telefones: +55  (0xx11)98348-5782</t>
+  </si>
+  <si>
+    <t>Unidade: Up Vila Sonia, Décimo nono pavimento, Apartamento 1904</t>
+  </si>
+  <si>
+    <t>257,33</t>
+  </si>
+  <si>
+    <t>0,77</t>
+  </si>
+  <si>
+    <t>5,15</t>
+  </si>
+  <si>
+    <t>263,25</t>
+  </si>
+  <si>
+    <t>Sabrina Silva Gomes: 1 Parcela</t>
+  </si>
+  <si>
+    <t>Cliente: STEPHANIE OLIVEIRA BRASIL JONES</t>
+  </si>
+  <si>
+    <t>Contrato: 0120-0</t>
+  </si>
+  <si>
+    <t>Telefones: +55  (0xx71)87942-634</t>
+  </si>
+  <si>
+    <t>Unidade: Up Vila Sonia, Décimo quarto pavimento, Apartamento 1403</t>
   </si>
   <si>
     <t>001-02/001</t>
   </si>
   <si>
-    <t>UNI</t>
-  </si>
-  <si>
-    <t>11.221,59</t>
-  </si>
-  <si>
-    <t>21,73</t>
-  </si>
-  <si>
-    <t>18,74</t>
-  </si>
-  <si>
-    <t>224,87</t>
-  </si>
-  <si>
-    <t>11.486,93</t>
-  </si>
-  <si>
-    <t>ISIS BRITO ALVES PRADO: 1 Parcela</t>
-  </si>
-  <si>
-    <t>Cliente: JULIA ALVES DA SILVA ARAUJO</t>
-  </si>
-  <si>
-    <t>Contrato: 0016-1</t>
-  </si>
-  <si>
-    <t>Telefones: +55  (0xx11)96891-8880</t>
-  </si>
-  <si>
-    <t>Unidade: Up Vila Sonia, Sexto pavimento, Apartamento 602</t>
-  </si>
-  <si>
-    <t>031/031</t>
-  </si>
-  <si>
-    <t>1.085,54</t>
-  </si>
-  <si>
-    <t>2,10</t>
-  </si>
-  <si>
-    <t>1,81</t>
-  </si>
-  <si>
-    <t>21,75</t>
-  </si>
-  <si>
-    <t>1.111,20</t>
-  </si>
-  <si>
-    <t>JULIA ALVES DA SILVA ARAUJO: 1 Parcela</t>
-  </si>
-  <si>
-    <t>Cliente: KARINNY GALVAO LEITE</t>
-  </si>
-  <si>
-    <t>Contrato: 0039-1</t>
-  </si>
-  <si>
-    <t>Telefones: +55  (0xx11)95384-1386</t>
-  </si>
-  <si>
-    <t>Unidade: Up Vila Sonia, Décimo sétimo pavimento, Apartamento 1704</t>
-  </si>
-  <si>
-    <t>033/033</t>
-  </si>
-  <si>
-    <t>1.622,79</t>
-  </si>
-  <si>
-    <t>3,14</t>
-  </si>
-  <si>
-    <t>2,71</t>
-  </si>
-  <si>
-    <t>32,52</t>
-  </si>
-  <si>
-    <t>1.661,16</t>
-  </si>
-  <si>
-    <t>KARINNY GALVAO LEITE: 1 Parcela</t>
-  </si>
-  <si>
-    <t>Cliente: Leticia Suzan da Silva</t>
-  </si>
-  <si>
-    <t>Contrato: 0020-1</t>
-  </si>
-  <si>
-    <t>Telefones: +55  (0xx11)99019-4464</t>
-  </si>
-  <si>
-    <t>Unidade: Up Vila Sonia, Vigésimo segundo andar, Apartamento 2208</t>
-  </si>
-  <si>
-    <t>006/</t>
-  </si>
-  <si>
-    <t>25/02/2025</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>382,53</t>
-  </si>
-  <si>
-    <t>1,02</t>
-  </si>
-  <si>
-    <t>7,65</t>
-  </si>
-  <si>
-    <t>391,20</t>
-  </si>
-  <si>
-    <t>Leticia Suzan da Silva: 1 Parcela</t>
-  </si>
-  <si>
-    <t>Cliente: MAURICIO GOVEA DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>Contrato: 0154-0</t>
-  </si>
-  <si>
-    <t>Telefones: +55  (0xx  )     -</t>
-  </si>
-  <si>
-    <t>Unidade: Up Vila Sonia, Sétimo pavimento, Apartamento 706</t>
-  </si>
-  <si>
-    <t>002/002</t>
-  </si>
-  <si>
-    <t>22/02/2025</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>111.084,85</t>
-  </si>
-  <si>
-    <t>399,54</t>
-  </si>
-  <si>
-    <t>408,78</t>
-  </si>
-  <si>
-    <t>2.229,69</t>
-  </si>
-  <si>
-    <t>114.122,86</t>
-  </si>
-  <si>
-    <t>MAURICIO GOVEA DE OLIVEIRA: 1 Parcela</t>
-  </si>
-  <si>
-    <t>Cliente: MIRTES SOUZA SANTOS</t>
-  </si>
-  <si>
-    <t>Contrato: 0134-3</t>
-  </si>
-  <si>
-    <t>Telefones: +55  (0xx11)97801-8913</t>
-  </si>
-  <si>
-    <t>Unidade: Up Vila Sonia, Quinto pavimento, Apartamento 502</t>
-  </si>
-  <si>
-    <t>005/008</t>
-  </si>
-  <si>
-    <t>15/10/2024</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>1.523,07</t>
-  </si>
-  <si>
-    <t>41,59</t>
-  </si>
-  <si>
-    <t>73,54</t>
-  </si>
-  <si>
-    <t>31,29</t>
-  </si>
-  <si>
-    <t>1.669,49</t>
-  </si>
-  <si>
-    <t>001/001</t>
-  </si>
-  <si>
-    <t>ANU</t>
-  </si>
-  <si>
-    <t>15/12/2024</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>13.324,64</t>
-  </si>
-  <si>
-    <t>193,92</t>
-  </si>
-  <si>
-    <t>360,49</t>
-  </si>
-  <si>
-    <t>270,37</t>
-  </si>
-  <si>
-    <t>14.149,42</t>
-  </si>
-  <si>
-    <t>002/</t>
-  </si>
-  <si>
-    <t>13,67</t>
-  </si>
-  <si>
-    <t>536,45</t>
-  </si>
-  <si>
-    <t>15/02/2025</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>16.806,02</t>
-  </si>
-  <si>
-    <t>92,99</t>
-  </si>
-  <si>
-    <t>101,39</t>
-  </si>
-  <si>
-    <t>337,98</t>
-  </si>
-  <si>
-    <t>17.338,38</t>
-  </si>
-  <si>
-    <t>008/018</t>
-  </si>
-  <si>
-    <t>REN</t>
-  </si>
-  <si>
-    <t>1.169,63</t>
-  </si>
-  <si>
-    <t>6,47</t>
-  </si>
-  <si>
-    <t>7,06</t>
-  </si>
-  <si>
-    <t>23,52</t>
-  </si>
-  <si>
-    <t>1.206,68</t>
-  </si>
-  <si>
-    <t>004/</t>
-  </si>
-  <si>
-    <t>3,08</t>
-  </si>
-  <si>
-    <t>525,86</t>
-  </si>
-  <si>
-    <t>MIRTES SOUZA SANTOS: 6 Parcelas</t>
-  </si>
-  <si>
-    <t>35.426,28</t>
-  </si>
-  <si>
-    <t>33.848,42</t>
-  </si>
-  <si>
-    <t>334,97</t>
-  </si>
-  <si>
-    <t>559,23</t>
-  </si>
-  <si>
-    <t>683,66</t>
-  </si>
-  <si>
-    <t>Cliente: Rafael Rodrigues Prado</t>
-  </si>
-  <si>
-    <t>Contrato: 0018-1</t>
-  </si>
-  <si>
-    <t>Telefones: +55  (0xx11)94951-6515</t>
-  </si>
-  <si>
-    <t>Unidade: Up Vila Sonia, Vigésimo primeiro andar, Apartamento 2108</t>
-  </si>
-  <si>
-    <t>10/02/2025</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>5.981,40</t>
-  </si>
-  <si>
-    <t>41,37</t>
-  </si>
-  <si>
-    <t>46,17</t>
-  </si>
-  <si>
-    <t>120,46</t>
-  </si>
-  <si>
-    <t>6.189,40</t>
-  </si>
-  <si>
-    <t>Rafael Rodrigues Prado: 1 Parcela</t>
-  </si>
-  <si>
-    <t>Cliente: Sabrina Silva Gomes</t>
-  </si>
-  <si>
-    <t>Contrato: 0035-1</t>
-  </si>
-  <si>
-    <t>Telefones: +55  (0xx11)98348-5782</t>
-  </si>
-  <si>
-    <t>Unidade: Up Vila Sonia, Décimo nono pavimento, Apartamento 1904</t>
-  </si>
-  <si>
-    <t>257,33</t>
-  </si>
-  <si>
-    <t>0,69</t>
-  </si>
-  <si>
-    <t>5,15</t>
-  </si>
-  <si>
-    <t>263,17</t>
-  </si>
-  <si>
-    <t>Sabrina Silva Gomes: 1 Parcela</t>
+    <t>12.643,03</t>
+  </si>
+  <si>
+    <t>13,49</t>
+  </si>
+  <si>
+    <t>37,97</t>
+  </si>
+  <si>
+    <t>253,13</t>
+  </si>
+  <si>
+    <t>12.947,62</t>
+  </si>
+  <si>
+    <t>STEPHANIE OLIVEIRA BRASIL JONES: 1 Parcela</t>
+  </si>
+  <si>
+    <t>Cliente: Vinicius Silvestri Martins de Oliveira</t>
+  </si>
+  <si>
+    <t>Contrato: 0055-2</t>
+  </si>
+  <si>
+    <t>Telefones: +55  (0xx11)99783-6559</t>
+  </si>
+  <si>
+    <t>Unidade: Up Vila Sonia, Décimo sexto pavimento, Apartamento 1601</t>
+  </si>
+  <si>
+    <t>002/015</t>
+  </si>
+  <si>
+    <t>RNR</t>
+  </si>
+  <si>
+    <t>15/06/2024</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>408,58</t>
+  </si>
+  <si>
+    <t>28,28</t>
+  </si>
+  <si>
+    <t>42,52</t>
+  </si>
+  <si>
+    <t>8,74</t>
+  </si>
+  <si>
+    <t>488,12</t>
+  </si>
+  <si>
+    <t>002/010</t>
+  </si>
+  <si>
+    <t>1.580,23</t>
+  </si>
+  <si>
+    <t>109,38</t>
+  </si>
+  <si>
+    <t>164,46</t>
+  </si>
+  <si>
+    <t>33,79</t>
+  </si>
+  <si>
+    <t>1.887,86</t>
+  </si>
+  <si>
+    <t>003/010</t>
+  </si>
+  <si>
+    <t>15/07/2024</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>1.593,82</t>
+  </si>
+  <si>
+    <t>95,79</t>
+  </si>
+  <si>
+    <t>147,56</t>
+  </si>
+  <si>
+    <t>1.870,96</t>
+  </si>
+  <si>
+    <t>003/009</t>
+  </si>
+  <si>
+    <t>389,82</t>
+  </si>
+  <si>
+    <t>23,43</t>
+  </si>
+  <si>
+    <t>36,09</t>
+  </si>
+  <si>
+    <t>8,26</t>
+  </si>
+  <si>
+    <t>457,60</t>
+  </si>
+  <si>
+    <t>003/015</t>
+  </si>
+  <si>
+    <t>412,09</t>
+  </si>
+  <si>
+    <t>24,77</t>
+  </si>
+  <si>
+    <t>38,15</t>
+  </si>
+  <si>
+    <t>483,75</t>
+  </si>
+  <si>
+    <t>004/015</t>
+  </si>
+  <si>
+    <t>15/08/2024</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>415,02</t>
+  </si>
+  <si>
+    <t>21,84</t>
+  </si>
+  <si>
+    <t>33,64</t>
+  </si>
+  <si>
+    <t>479,24</t>
+  </si>
+  <si>
+    <t>004/009</t>
+  </si>
+  <si>
+    <t>392,58</t>
+  </si>
+  <si>
+    <t>20,66</t>
+  </si>
+  <si>
+    <t>31,82</t>
+  </si>
+  <si>
+    <t>453,32</t>
   </si>
   <si>
     <t>Folha No 2</t>
   </si>
   <si>
-    <t>Cliente: Vinicius Silvestri Martins de Oliveira</t>
-  </si>
-  <si>
-    <t>Contrato: 0055-2</t>
-  </si>
-  <si>
-    <t>Telefones: +55  (0xx11)99783-6559</t>
-  </si>
-  <si>
-    <t>Unidade: Up Vila Sonia, Décimo sexto pavimento, Apartamento 1601</t>
-  </si>
-  <si>
-    <t>15/06/2024</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>002/015</t>
-  </si>
-  <si>
-    <t>RNR</t>
-  </si>
-  <si>
-    <t>408,58</t>
-  </si>
-  <si>
-    <t>23,78</t>
-  </si>
-  <si>
-    <t>37,90</t>
-  </si>
-  <si>
-    <t>8,65</t>
-  </si>
-  <si>
-    <t>478,91</t>
-  </si>
-  <si>
-    <t>002/010</t>
-  </si>
-  <si>
-    <t>1.580,23</t>
-  </si>
-  <si>
-    <t>91,97</t>
-  </si>
-  <si>
-    <t>146,60</t>
-  </si>
-  <si>
-    <t>33,44</t>
-  </si>
-  <si>
-    <t>1.852,24</t>
-  </si>
-  <si>
-    <t>003/010</t>
-  </si>
-  <si>
-    <t>15/07/2024</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>1.593,82</t>
-  </si>
-  <si>
-    <t>78,46</t>
-  </si>
-  <si>
-    <t>129,88</t>
-  </si>
-  <si>
-    <t>33,45</t>
-  </si>
-  <si>
-    <t>1.835,61</t>
-  </si>
-  <si>
-    <t>003/009</t>
-  </si>
-  <si>
-    <t>389,82</t>
-  </si>
-  <si>
-    <t>19,19</t>
-  </si>
-  <si>
-    <t>31,77</t>
-  </si>
-  <si>
-    <t>8,18</t>
-  </si>
-  <si>
-    <t>448,96</t>
-  </si>
-  <si>
-    <t>003/015</t>
-  </si>
-  <si>
-    <t>412,09</t>
-  </si>
-  <si>
-    <t>20,29</t>
-  </si>
-  <si>
-    <t>33,58</t>
-  </si>
-  <si>
-    <t>474,61</t>
-  </si>
-  <si>
-    <t>004/015</t>
-  </si>
-  <si>
-    <t>15/08/2024</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>415,02</t>
-  </si>
-  <si>
-    <t>17,38</t>
-  </si>
-  <si>
-    <t>29,11</t>
-  </si>
-  <si>
-    <t>470,16</t>
-  </si>
-  <si>
-    <t>004/009</t>
-  </si>
-  <si>
-    <t>392,58</t>
-  </si>
-  <si>
-    <t>16,44</t>
-  </si>
-  <si>
-    <t>27,54</t>
-  </si>
-  <si>
-    <t>444,74</t>
+    <t>Impresso em: 03/04/2025 16:45:07</t>
   </si>
   <si>
     <t>004/010</t>
@@ -835,34 +799,34 @@
     <t>1.605,14</t>
   </si>
   <si>
-    <t>67,20</t>
-  </si>
-  <si>
-    <t>112,60</t>
-  </si>
-  <si>
-    <t>1.818,39</t>
+    <t>84,48</t>
+  </si>
+  <si>
+    <t>130,10</t>
+  </si>
+  <si>
+    <t>1.853,51</t>
+  </si>
+  <si>
+    <t>005/010</t>
   </si>
   <si>
     <t>15/09/2024</t>
   </si>
   <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>005/010</t>
+    <t>200</t>
   </si>
   <si>
     <t>1.616,70</t>
   </si>
   <si>
-    <t>55,71</t>
-  </si>
-  <si>
-    <t>95,33</t>
-  </si>
-  <si>
-    <t>1.801,19</t>
+    <t>72,92</t>
+  </si>
+  <si>
+    <t>112,64</t>
+  </si>
+  <si>
+    <t>1.836,05</t>
   </si>
   <si>
     <t>005/009</t>
@@ -871,13 +835,13 @@
     <t>395,41</t>
   </si>
   <si>
-    <t>13,63</t>
-  </si>
-  <si>
-    <t>23,32</t>
-  </si>
-  <si>
-    <t>440,54</t>
+    <t>17,83</t>
+  </si>
+  <si>
+    <t>27,55</t>
+  </si>
+  <si>
+    <t>449,05</t>
   </si>
   <si>
     <t>005/015</t>
@@ -886,13 +850,13 @@
     <t>418,01</t>
   </si>
   <si>
-    <t>14,40</t>
-  </si>
-  <si>
-    <t>24,65</t>
-  </si>
-  <si>
-    <t>465,71</t>
+    <t>18,85</t>
+  </si>
+  <si>
+    <t>29,12</t>
+  </si>
+  <si>
+    <t>474,72</t>
   </si>
   <si>
     <t>006/015</t>
@@ -901,13 +865,13 @@
     <t>420,93</t>
   </si>
   <si>
-    <t>11,49</t>
-  </si>
-  <si>
-    <t>20,32</t>
-  </si>
-  <si>
-    <t>461,39</t>
+    <t>15,93</t>
+  </si>
+  <si>
+    <t>24,76</t>
+  </si>
+  <si>
+    <t>470,36</t>
   </si>
   <si>
     <t>006/009</t>
@@ -916,13 +880,13 @@
     <t>398,18</t>
   </si>
   <si>
-    <t>10,87</t>
-  </si>
-  <si>
-    <t>19,23</t>
-  </si>
-  <si>
-    <t>436,46</t>
+    <t>15,07</t>
+  </si>
+  <si>
+    <t>23,42</t>
+  </si>
+  <si>
+    <t>444,93</t>
   </si>
   <si>
     <t>006/010</t>
@@ -931,13 +895,13 @@
     <t>1.628,01</t>
   </si>
   <si>
-    <t>44,46</t>
-  </si>
-  <si>
-    <t>78,61</t>
-  </si>
-  <si>
-    <t>1.784,53</t>
+    <t>61,60</t>
+  </si>
+  <si>
+    <t>95,74</t>
+  </si>
+  <si>
+    <t>1.819,14</t>
   </si>
   <si>
     <t>007/010</t>
@@ -946,19 +910,19 @@
     <t>15/11/2024</t>
   </si>
   <si>
-    <t>110</t>
+    <t>139</t>
   </si>
   <si>
     <t>1.637,46</t>
   </si>
   <si>
-    <t>35,07</t>
-  </si>
-  <si>
-    <t>61,33</t>
-  </si>
-  <si>
-    <t>1.767,31</t>
+    <t>52,16</t>
+  </si>
+  <si>
+    <t>78,29</t>
+  </si>
+  <si>
+    <t>1.801,70</t>
   </si>
   <si>
     <t>007/009</t>
@@ -967,13 +931,13 @@
     <t>400,49</t>
   </si>
   <si>
-    <t>8,58</t>
-  </si>
-  <si>
-    <t>15,00</t>
-  </si>
-  <si>
-    <t>432,25</t>
+    <t>12,76</t>
+  </si>
+  <si>
+    <t>19,15</t>
+  </si>
+  <si>
+    <t>440,66</t>
   </si>
   <si>
     <t>007/015</t>
@@ -982,13 +946,10 @@
     <t>423,37</t>
   </si>
   <si>
-    <t>9,07</t>
-  </si>
-  <si>
-    <t>15,86</t>
-  </si>
-  <si>
-    <t>456,95</t>
+    <t>20,24</t>
+  </si>
+  <si>
+    <t>465,84</t>
   </si>
   <si>
     <t>008/015</t>
@@ -997,13 +958,13 @@
     <t>426,25</t>
   </si>
   <si>
-    <t>6,20</t>
-  </si>
-  <si>
-    <t>11,53</t>
-  </si>
-  <si>
-    <t>452,63</t>
+    <t>10,61</t>
+  </si>
+  <si>
+    <t>15,87</t>
+  </si>
+  <si>
+    <t>461,47</t>
   </si>
   <si>
     <t>008/009</t>
@@ -1012,13 +973,13 @@
     <t>403,19</t>
   </si>
   <si>
-    <t>5,87</t>
-  </si>
-  <si>
-    <t>10,91</t>
-  </si>
-  <si>
-    <t>428,15</t>
+    <t>10,03</t>
+  </si>
+  <si>
+    <t>15,01</t>
+  </si>
+  <si>
+    <t>436,49</t>
   </si>
   <si>
     <t>008/010</t>
@@ -1027,13 +988,13 @@
     <t>1.648,59</t>
   </si>
   <si>
-    <t>23,99</t>
-  </si>
-  <si>
-    <t>44,60</t>
-  </si>
-  <si>
-    <t>1.750,63</t>
+    <t>41,02</t>
+  </si>
+  <si>
+    <t>61,39</t>
+  </si>
+  <si>
+    <t>1.784,79</t>
   </si>
   <si>
     <t>009/010</t>
@@ -1042,19 +1003,37 @@
     <t>15/01/2025</t>
   </si>
   <si>
-    <t>49</t>
+    <t>78</t>
   </si>
   <si>
     <t>1.655,19</t>
   </si>
   <si>
-    <t>17,43</t>
-  </si>
-  <si>
-    <t>27,32</t>
-  </si>
-  <si>
-    <t>1.733,39</t>
+    <t>34,43</t>
+  </si>
+  <si>
+    <t>43,93</t>
+  </si>
+  <si>
+    <t>1.767,34</t>
+  </si>
+  <si>
+    <t>009/009</t>
+  </si>
+  <si>
+    <t>3.238,58</t>
+  </si>
+  <si>
+    <t>67,37</t>
+  </si>
+  <si>
+    <t>85,95</t>
+  </si>
+  <si>
+    <t>66,12</t>
+  </si>
+  <si>
+    <t>3.458,02</t>
   </si>
   <si>
     <t>009/015</t>
@@ -1063,28 +1042,13 @@
     <t>427,96</t>
   </si>
   <si>
-    <t>4,51</t>
-  </si>
-  <si>
-    <t>448,18</t>
-  </si>
-  <si>
-    <t>009/009</t>
-  </si>
-  <si>
-    <t>3.238,58</t>
-  </si>
-  <si>
-    <t>34,11</t>
-  </si>
-  <si>
-    <t>53,45</t>
-  </si>
-  <si>
-    <t>65,45</t>
-  </si>
-  <si>
-    <t>3.391,59</t>
+    <t>8,90</t>
+  </si>
+  <si>
+    <t>11,36</t>
+  </si>
+  <si>
+    <t>456,96</t>
   </si>
   <si>
     <t>010/015</t>
@@ -1093,13 +1057,13 @@
     <t>430,10</t>
   </si>
   <si>
-    <t>2,38</t>
-  </si>
-  <si>
-    <t>2,59</t>
-  </si>
-  <si>
-    <t>443,72</t>
+    <t>6,76</t>
+  </si>
+  <si>
+    <t>6,84</t>
+  </si>
+  <si>
+    <t>452,44</t>
   </si>
   <si>
     <t>010/010</t>
@@ -1108,52 +1072,136 @@
     <t>1.663,50</t>
   </si>
   <si>
-    <t>9,20</t>
-  </si>
-  <si>
-    <t>10,04</t>
-  </si>
-  <si>
-    <t>1.716,19</t>
-  </si>
-  <si>
-    <t>Vinicius Silvestri Martins de Oliveira: 25 Parcelas</t>
-  </si>
-  <si>
-    <t>24.029,20</t>
-  </si>
-  <si>
-    <t>641,68</t>
-  </si>
-  <si>
-    <t>1.070,13</t>
-  </si>
-  <si>
-    <t>493,42</t>
-  </si>
-  <si>
-    <t>26.234,43</t>
-  </si>
-  <si>
-    <t>Total: 13 Contratos em Atraso</t>
-  </si>
-  <si>
-    <t>194.726,38</t>
-  </si>
-  <si>
-    <t>1.458,70</t>
-  </si>
-  <si>
-    <t>2.140,38</t>
-  </si>
-  <si>
-    <t>3.923,70</t>
-  </si>
-  <si>
-    <t>202.249,16</t>
-  </si>
-  <si>
-    <t>Total Geral: 13 Contratos em Atraso</t>
+    <t>26,16</t>
+  </si>
+  <si>
+    <t>26,47</t>
+  </si>
+  <si>
+    <t>1.749,92</t>
+  </si>
+  <si>
+    <t>011/015</t>
+  </si>
+  <si>
+    <t>433,67</t>
+  </si>
+  <si>
+    <t>3,19</t>
+  </si>
+  <si>
+    <t>2,77</t>
+  </si>
+  <si>
+    <t>448,37</t>
+  </si>
+  <si>
+    <t>Vinicius Silvestri Martins de Oliveira: 26 Parcelas</t>
+  </si>
+  <si>
+    <t>27.192,61</t>
+  </si>
+  <si>
+    <t>24.462,87</t>
+  </si>
+  <si>
+    <t>897,71</t>
+  </si>
+  <si>
+    <t>1.324,84</t>
+  </si>
+  <si>
+    <t>507,19</t>
+  </si>
+  <si>
+    <t>Cliente: YASMIN NUNES E SOUZA</t>
+  </si>
+  <si>
+    <t>Contrato: 0083-1</t>
+  </si>
+  <si>
+    <t>Telefones: +55  (0xx11)94603-5286</t>
+  </si>
+  <si>
+    <t>Unidade: Up Vila Sonia, Oitavo pavimento, Apartamento 803</t>
+  </si>
+  <si>
+    <t>10/03/2025</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>34.701,25</t>
+  </si>
+  <si>
+    <t>316,83</t>
+  </si>
+  <si>
+    <t>280,14</t>
+  </si>
+  <si>
+    <t>700,36</t>
+  </si>
+  <si>
+    <t>35.998,58</t>
+  </si>
+  <si>
+    <t>029/031</t>
+  </si>
+  <si>
+    <t>1.386,09</t>
+  </si>
+  <si>
+    <t>2,85</t>
+  </si>
+  <si>
+    <t>1,85</t>
+  </si>
+  <si>
+    <t>27,78</t>
+  </si>
+  <si>
+    <t>1.418,57</t>
+  </si>
+  <si>
+    <t>YASMIN NUNES E SOUZA: 2 Parcelas</t>
+  </si>
+  <si>
+    <t>37.417,15</t>
+  </si>
+  <si>
+    <t>36.087,34</t>
+  </si>
+  <si>
+    <t>319,68</t>
+  </si>
+  <si>
+    <t>281,99</t>
+  </si>
+  <si>
+    <t>728,14</t>
+  </si>
+  <si>
+    <t>Total: 12 Contratos em Atraso</t>
+  </si>
+  <si>
+    <t>182.325,32</t>
+  </si>
+  <si>
+    <t>2.175,02</t>
+  </si>
+  <si>
+    <t>2.773,22</t>
+  </si>
+  <si>
+    <t>3.701,99</t>
+  </si>
+  <si>
+    <t>191.577,03</t>
+  </si>
+  <si>
+    <t>Total Geral: 12 Contratos em Atraso</t>
   </si>
   <si>
     <t>Total Adesão Geral</t>
@@ -1535,7 +1583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="O4:K112"/>
+  <dimension ref="O4:K110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1758,172 +1806,172 @@
       </c>
     </row>
     <row r="18" spans="2:14">
-      <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="L21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="O21" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C22" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="2:14">
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:14">
@@ -1934,40 +1982,40 @@
         <v>42</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="2:14">
@@ -1975,22 +2023,22 @@
         <v>29</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>33</v>
@@ -1999,58 +2047,58 @@
         <v>33</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="L28" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="2:14">
       <c r="B30" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="2:14">
@@ -2058,85 +2106,85 @@
         <v>25</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="2:14">
       <c r="B33" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="2:14">
       <c r="B34" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="2:14">
@@ -2147,82 +2195,82 @@
         <v>42</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="2:14">
       <c r="B36" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="2:14">
       <c r="B38" s="2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="2:14">
       <c r="B39" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="2:14">
@@ -2233,108 +2281,186 @@
         <v>42</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="2" t="s">
-        <v>126</v>
+      <c r="C41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="2" t="s">
-        <v>127</v>
+      <c r="C42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="2:14">
-      <c r="B43" s="2" t="s">
-        <v>129</v>
+      <c r="C43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="2:14">
-      <c r="B44" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C44" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>33</v>
@@ -2343,252 +2469,252 @@
         <v>33</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="2" t="s">
-        <v>138</v>
+      <c r="C45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="2:14">
-      <c r="B46" s="2" t="s">
-        <v>139</v>
+      <c r="C46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="2:14">
       <c r="B47" s="2" t="s">
-        <v>141</v>
+        <v>172</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="2:14">
       <c r="B48" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="2:14">
       <c r="B49" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="2:14">
       <c r="B50" s="2" t="s">
-        <v>152</v>
+        <v>25</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="2:14">
       <c r="B51" s="2" t="s">
-        <v>154</v>
+        <v>187</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="2:14">
       <c r="B52" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14">
-      <c r="C53" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14">
       <c r="C54" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>167</v>
+        <v>46</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>33</v>
@@ -2597,342 +2723,439 @@
         <v>33</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="2:14">
-      <c r="C55" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>47</v>
+      <c r="B55" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>179</v>
+        <v>33</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="2:14">
-      <c r="C56" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>33</v>
+      <c r="B56" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="2:14">
-      <c r="C57" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>33</v>
+      <c r="B57" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="2:14">
       <c r="B58" s="2" t="s">
-        <v>193</v>
+        <v>25</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="2:14">
       <c r="B59" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="2:14">
       <c r="B60" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="2:14">
       <c r="B61" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="2:14">
       <c r="B62" s="2" t="s">
-        <v>210</v>
+        <v>25</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="2:14">
-      <c r="B63" s="2" t="s">
-        <v>211</v>
+      <c r="C63" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="2:14">
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="C65" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14">
+      <c r="C66" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="O64" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14">
-      <c r="B65" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14">
-      <c r="B66" s="2" t="s">
+      <c r="F66" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M66" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="N66" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>218</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="C67" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14">
+      <c r="C68" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="2:14">
       <c r="O75" s="1" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="2:14">
@@ -2940,7 +3163,7 @@
         <v>2</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>3</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="2:14">
@@ -2996,63 +3219,126 @@
       </c>
     </row>
     <row r="80" spans="2:14">
-      <c r="B80" s="2" t="s">
-        <v>221</v>
+      <c r="C80" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="2:14">
-      <c r="B81" s="2" t="s">
-        <v>223</v>
+      <c r="C81" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
     </row>
     <row r="82" spans="2:14">
-      <c r="B82" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C82" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>228</v>
+        <v>153</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="2:14">
@@ -3060,40 +3346,40 @@
         <v>42</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>234</v>
+        <v>276</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84" spans="2:14">
@@ -3101,40 +3387,40 @@
         <v>42</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
     </row>
     <row r="85" spans="2:14">
@@ -3142,40 +3428,40 @@
         <v>42</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="N85" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86" spans="2:14">
@@ -3183,40 +3469,40 @@
         <v>42</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="N86" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="2:14">
@@ -3224,40 +3510,40 @@
         <v>42</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="2:14">
@@ -3265,40 +3551,40 @@
         <v>42</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="2:14">
@@ -3306,40 +3592,40 @@
         <v>42</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>273</v>
+        <v>203</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
     </row>
     <row r="90" spans="2:14">
@@ -3347,40 +3633,40 @@
         <v>42</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>276</v>
+        <v>137</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>277</v>
+        <v>138</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
     </row>
     <row r="91" spans="2:14">
@@ -3388,40 +3674,40 @@
         <v>42</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>276</v>
+        <v>137</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>277</v>
+        <v>138</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
     </row>
     <row r="92" spans="2:14">
@@ -3429,40 +3715,40 @@
         <v>42</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>276</v>
+        <v>137</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>277</v>
+        <v>138</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
     </row>
     <row r="93" spans="2:14">
@@ -3470,40 +3756,40 @@
         <v>42</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>157</v>
+        <v>328</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>158</v>
+        <v>329</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94" spans="2:14">
@@ -3511,40 +3797,40 @@
         <v>42</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>157</v>
+        <v>328</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>158</v>
+        <v>329</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
     </row>
     <row r="95" spans="2:14">
@@ -3552,40 +3838,40 @@
         <v>42</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>157</v>
+        <v>328</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>158</v>
+        <v>329</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
     </row>
     <row r="96" spans="2:14">
@@ -3593,40 +3879,40 @@
         <v>42</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>309</v>
+        <v>145</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>310</v>
+        <v>146</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
     </row>
     <row r="97" spans="2:14">
@@ -3634,40 +3920,40 @@
         <v>42</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>309</v>
+        <v>145</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>310</v>
+        <v>146</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
     </row>
     <row r="98" spans="2:14">
@@ -3675,204 +3961,126 @@
         <v>42</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>309</v>
+        <v>163</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>310</v>
+        <v>164</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="N98" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
     </row>
     <row r="99" spans="2:14">
-      <c r="C99" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>47</v>
+      <c r="B99" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>232</v>
+        <v>365</v>
       </c>
       <c r="N99" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
     </row>
     <row r="100" spans="2:14">
-      <c r="C100" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>33</v>
+      <c r="B100" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
     </row>
     <row r="101" spans="2:14">
-      <c r="C101" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="N101" s="1" t="s">
-        <v>33</v>
+      <c r="B101" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
     </row>
     <row r="102" spans="2:14">
+      <c r="B102" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C102" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>340</v>
+        <v>66</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>246</v>
+        <v>375</v>
       </c>
       <c r="N102" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
     </row>
     <row r="103" spans="2:14">
@@ -3880,265 +4088,142 @@
         <v>42</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>341</v>
+        <v>68</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>342</v>
+        <v>69</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>187</v>
+        <v>380</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>232</v>
+        <v>381</v>
       </c>
       <c r="N103" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
     </row>
     <row r="104" spans="2:14">
-      <c r="C104" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>47</v>
+      <c r="B104" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="N104" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105" spans="2:14">
-      <c r="C105" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>47</v>
+      <c r="B105" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>232</v>
+        <v>393</v>
       </c>
       <c r="N105" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
     </row>
     <row r="106" spans="2:14">
-      <c r="C106" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>47</v>
+      <c r="B106" s="2" t="s">
+        <v>395</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>246</v>
+        <v>393</v>
       </c>
       <c r="N106" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
     </row>
     <row r="107" spans="2:14">
-      <c r="B107" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="N107" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O107" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14">
-      <c r="B108" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>378</v>
+      <c r="I107" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="109" spans="2:14">
-      <c r="B109" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="L109" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="M109" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="N109" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O109" s="1" t="s">
-        <v>378</v>
+      <c r="I109" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="110" spans="2:14">
       <c r="I110" s="4" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="K110" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14">
-      <c r="I111" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="K111" s="5" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14">
-      <c r="I112" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="K112" s="5" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -4363,13 +4448,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58497739-6B48-42AC-8633-3D3C9D41D8FB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F92F8158-6373-4EFD-A7B6-F998EE65FDBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{038FED46-9B52-4D9D-8092-40F856A0439A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A3B5478-0BBF-4D5E-B397-2EE9DA156327}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B73F558-78BB-4230-9C23-4FA40D998E74}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{190CC232-190E-4238-A313-579EF6AC4B53}"/>
 </file>